--- a/Project_management/Week_09/Team5_Timesheet_Week_9_Yifei Xu.xlsx
+++ b/Project_management/Week_09/Team5_Timesheet_Week_9_Yifei Xu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixxx/Library/Mobile Documents/com~apple~CloudDocs/Uniade/2021 S1/MCI/Team-05/Project_management/Week_09/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixxx/Team-05/Project_management/Week_09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8FFD7B-AF53-3147-8565-13A5A7323E71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF25A4FC-0CBA-954B-BE8C-5D006718C1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="6720" windowWidth="27640" windowHeight="16940" xr2:uid="{734FEDBC-F2DF-6E41-AF65-0F4174D1A0E8}"/>
+    <workbookView xWindow="8020" yWindow="6860" windowWidth="27640" windowHeight="16940" xr2:uid="{734FEDBC-F2DF-6E41-AF65-0F4174D1A0E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,10 +99,6 @@
     <t>Prepare for the lecture.</t>
   </si>
   <si>
-    <t>Week starting: Week 6 2021/4/26</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">I write the css and html,javascript about this project. </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -161,6 +157,9 @@
   <si>
     <t>We need to assign the tasks about what we should do in next few weeks.</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week starting: Week 9 2021/4/26</t>
   </si>
 </sst>
 </file>
@@ -672,7 +671,7 @@
   <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="F6:H6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,7 +709,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -782,13 +781,13 @@
         <v>4</v>
       </c>
       <c r="F7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -808,13 +807,13 @@
         <v>4</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -834,13 +833,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -860,13 +859,13 @@
         <v>5</v>
       </c>
       <c r="F10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="69" thickBot="1" x14ac:dyDescent="0.25">
@@ -886,13 +885,13 @@
         <v>4</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">

--- a/Project_management/Week_09/Team5_Timesheet_Week_9_Yifei Xu.xlsx
+++ b/Project_management/Week_09/Team5_Timesheet_Week_9_Yifei Xu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixxx/Team-05/Project_management/Week_09/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF25A4FC-0CBA-954B-BE8C-5D006718C1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D28B3E-37BA-1645-B808-973DA868DB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8020" yWindow="6860" windowWidth="27640" windowHeight="16940" xr2:uid="{734FEDBC-F2DF-6E41-AF65-0F4174D1A0E8}"/>
   </bookViews>
